--- a/Funções Básicas E Produtividade/4 - Produtividade.xlsx
+++ b/Funções Básicas E Produtividade/4 - Produtividade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Funções Básicas E Produtividade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F7CD2C-0E67-46BE-B9D3-D54A9028C8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FEB9E-F9B8-4A7E-9E14-F9624A11C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{14B8E3A2-8ABA-4B8F-9A08-72824D20B5E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{14B8E3A2-8ABA-4B8F-9A08-72824D20B5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pincel de Formatação" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="127">
   <si>
     <t>Produto</t>
   </si>
@@ -522,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -674,12 +674,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,9 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,12 +823,254 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -830,6 +1120,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CBDFAF9-4073-40B7-9EC7-F3BAA7C9FF60}" name="Tabela1" displayName="Tabela1" ref="B14:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="B14:H21" xr:uid="{8CBDFAF9-4073-40B7-9EC7-F3BAA7C9FF60}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{11D0A082-FB45-44DB-BE25-A391843A5D3E}" name="ID e Nome Completo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{962C5D2C-5BC1-44D0-A05C-C09E53D182E0}" name="Cidade" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{114DAE30-38E8-4A08-9D3E-A69DB1978489}" name="Nome" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A44FB026-E251-49FF-A805-5E6135B912A7}" name="Sobrenome" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E8CD682A-0629-423B-8079-1D0352FC1031}" name="ID" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5E7E4E85-83DC-4689-BA15-E38A2ACED62C}" name="Nome + Sobrenome" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AF257C6E-DCF2-4416-B72F-B379140C957E}" name="Nome + Cidade" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0F59844-1B63-45BF-8D54-CCC5586F1CE9}" name="Tabela2" displayName="Tabela2" ref="B2:C10" totalsRowCount="1">
   <autoFilter ref="B2:C9" xr:uid="{B0F59844-1B63-45BF-8D54-CCC5586F1CE9}"/>
   <tableColumns count="2">
@@ -1170,7 +1476,7 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1528,26 +1834,26 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1559,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C49006-4A21-4667-8CCF-9D68B2DB2AE9}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,9 +1877,9 @@
     <col min="2" max="2" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -1631,19 +1937,19 @@
       <c r="C4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>9002</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1677,19 +1983,19 @@
       <c r="C6" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>9044</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1723,19 +2029,19 @@
       <c r="C8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>9078</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1763,16 +2069,133 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1780,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89948C03-AD4E-4436-A255-A3E15CBC45C1}">
   <dimension ref="B3:K98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,17 +5492,17 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
